--- a/labTools/DNA_Quant/example_data/overall_dna-extract-plate-map.xlsx
+++ b/labTools/DNA_Quant/example_data/overall_dna-extract-plate-map.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tamucc-my.sharepoint.com/personal/klabrador_islander_tamucc_edu/Documents/Desktop/rme_quants/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jdsel\Documents\Google Drive\TAMUCC-CORE\Bioinformatics\gcl_bioinformatic_tools\labTools\DNA_Quant\example_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="186" documentId="11_F25DC773A252ABDACC104865599974EA5BDE58ED" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6D50B75A-8865-44F2-B8DF-B40C62B75889}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC66D1-03FB-47E7-AA37-21BF984CD13C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="plate-map_tidy" sheetId="2" r:id="rId1"/>
@@ -66,9 +66,6 @@
     <t>H</t>
   </si>
   <si>
-    <t>dna-extract-tube-id</t>
-  </si>
-  <si>
     <t>plate-row</t>
   </si>
   <si>
@@ -289,6 +286,9 @@
   </si>
   <si>
     <t>control</t>
+  </si>
+  <si>
+    <t>dna-extract-id</t>
   </si>
 </sst>
 </file>
@@ -723,55 +723,55 @@
   <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="33.453125" customWidth="1"/>
-    <col min="2" max="4" width="18.76953125" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="2" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="G1" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E1" s="5" t="s">
+      <c r="D2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="E2" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.75">
-      <c r="A2" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="10" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>44</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>0</v>
@@ -780,21 +780,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="8" t="s">
         <v>1</v>
@@ -803,21 +803,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="8" t="s">
         <v>2</v>
@@ -826,21 +826,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="8" t="s">
         <v>3</v>
@@ -849,21 +849,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="8" t="s">
         <v>4</v>
@@ -872,21 +872,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="8" t="s">
         <v>5</v>
@@ -895,21 +895,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="8" t="s">
         <v>6</v>
@@ -918,21 +918,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>7</v>
@@ -941,21 +941,21 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>0</v>
@@ -964,21 +964,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" s="8" t="s">
         <v>1</v>
@@ -987,21 +987,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C12" s="10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="8" t="s">
         <v>2</v>
@@ -1010,21 +1010,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" s="8" t="s">
         <v>4</v>
@@ -1033,21 +1033,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" s="8" t="s">
         <v>5</v>
@@ -1056,21 +1056,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>6</v>
@@ -1079,21 +1079,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C16" s="10" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>7</v>
@@ -1102,21 +1102,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C17" s="10" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>0</v>
@@ -1125,21 +1125,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C18" s="10" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>1</v>
@@ -1148,21 +1148,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>2</v>
@@ -1171,21 +1171,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C20" s="10" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>3</v>
@@ -1194,21 +1194,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="10" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>4</v>
@@ -1217,21 +1217,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>5</v>
@@ -1240,21 +1240,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>6</v>
@@ -1263,21 +1263,21 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C24" s="10" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>0</v>
@@ -1286,21 +1286,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B25" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>1</v>
@@ -1309,21 +1309,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C26" s="10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F26" s="8" t="s">
         <v>2</v>
@@ -1332,21 +1332,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C27" s="10" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F27" s="8" t="s">
         <v>3</v>
@@ -1355,21 +1355,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C28" s="10" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>4</v>
@@ -1378,21 +1378,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D29" s="12" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" s="8" t="s">
         <v>5</v>
@@ -1401,21 +1401,21 @@
         <v>4</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C30" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D30" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F30" s="8" t="s">
         <v>3</v>
@@ -1424,21 +1424,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="7" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D31" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F31" s="8" t="s">
         <v>7</v>
@@ -1467,17 +1467,17 @@
       <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.75">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1"/>
       <c r="B2" s="1">
         <v>1</v>
@@ -1516,21 +1516,21 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F3" s="3"/>
       <c r="G3" s="3"/>
@@ -1541,21 +1541,21 @@
       <c r="L3" s="3"/>
       <c r="M3" s="3"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F4" s="3"/>
       <c r="G4" s="3"/>
@@ -1566,21 +1566,21 @@
       <c r="L4" s="3"/>
       <c r="M4" s="3"/>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -1591,21 +1591,21 @@
       <c r="L5" s="3"/>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
@@ -1616,21 +1616,21 @@
       <c r="L6" s="3"/>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="3"/>
@@ -1641,21 +1641,21 @@
       <c r="L7" s="3"/>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
@@ -1666,18 +1666,18 @@
       <c r="L8" s="3"/>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -1689,18 +1689,18 @@
       <c r="L9" s="3"/>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
